--- a/battery_packs_output.xlsx
+++ b/battery_packs_output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CI15"/>
+  <dimension ref="A1:CI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5364,6 +5364,153 @@
         <v>3304</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>46987</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>46987</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>46987</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>46987</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
+        <v>46986</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
+        <v>46985</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>46983</v>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="n">
+        <v>46983</v>
+      </c>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="n">
+        <v>46982</v>
+      </c>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="n">
+        <v>46982</v>
+      </c>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="n">
+        <v>46981</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="AR16" t="inlineStr"/>
+      <c r="AS16" t="inlineStr"/>
+      <c r="AT16" t="n">
+        <v>46980</v>
+      </c>
+      <c r="AU16" t="inlineStr"/>
+      <c r="AV16" t="inlineStr"/>
+      <c r="AW16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="AX16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr"/>
+      <c r="AZ16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="BA16" t="inlineStr"/>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="BG16" t="inlineStr"/>
+      <c r="BH16" t="inlineStr"/>
+      <c r="BI16" t="n">
+        <v>46978</v>
+      </c>
+      <c r="BJ16" t="inlineStr"/>
+      <c r="BK16" t="inlineStr"/>
+      <c r="BL16" t="n">
+        <v>46980</v>
+      </c>
+      <c r="BM16" t="inlineStr"/>
+      <c r="BN16" t="inlineStr"/>
+      <c r="BO16" t="n">
+        <v>46978</v>
+      </c>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="BV16" t="inlineStr"/>
+      <c r="BW16" t="inlineStr"/>
+      <c r="BX16" t="n">
+        <v>46980</v>
+      </c>
+      <c r="BY16" t="inlineStr"/>
+      <c r="BZ16" t="inlineStr"/>
+      <c r="CA16" t="n">
+        <v>46979</v>
+      </c>
+      <c r="CB16" t="inlineStr"/>
+      <c r="CC16" t="inlineStr"/>
+      <c r="CD16" t="n">
+        <v>46978</v>
+      </c>
+      <c r="CE16" t="inlineStr"/>
+      <c r="CF16" t="inlineStr"/>
+      <c r="CG16" t="n">
+        <v>46978</v>
+      </c>
+      <c r="CH16" t="inlineStr"/>
+      <c r="CI16" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
